--- a/Day 1- Mastering Formulas + Pivot Tables in Excel/3-Pivot Tables/3-1 Pivot Tables.xlsx
+++ b/Day 1- Mastering Formulas + Pivot Tables in Excel/3-Pivot Tables/3-1 Pivot Tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpo64\Desktop\Courses\Elementsix\Day 1- Mastering Formulas + Pivot Tables in Excel\3-Pivot Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpo64\Documents\GitHub\element-six\Day 1- Mastering Formulas + Pivot Tables in Excel\3-Pivot Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44BA71BA-ED3B-4A25-A0E5-9206402890FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E127B0-D236-46F8-BE1A-F2652B4F9945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="507" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId9"/>
+    <pivotCache cacheId="6" r:id="rId9"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -382,7 +381,7 @@
     <cellStyle name="Normal_Sheet1" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal_TapePivot" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="35">
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -411,6 +410,9 @@
       <alignment horizontal="right"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right"/>
     </dxf>
     <dxf>
@@ -420,8 +422,23 @@
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -433,10 +450,27 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -444,6 +478,122 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -713,7 +863,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -725,27 +875,10 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -753,122 +886,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1408,7 +1425,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D77A620C-1ED7-486A-A7B0-D0C52E9A4EA0}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D77A620C-1ED7-486A-A7B0-D0C52E9A4EA0}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B4:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="164" showAll="0">
@@ -1521,7 +1538,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB02E2B2-3854-4A58-9022-DE0363E1BF4A}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB02E2B2-3854-4A58-9022-DE0363E1BF4A}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B4:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="164" showAll="0">
@@ -1619,17 +1636,17 @@
     <dataField name="Average of Total" fld="6" subtotal="average" baseField="1" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="11">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -1646,7 +1663,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA6DD558-3878-42F7-AAA5-2EDB4B3AB81D}" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA6DD558-3878-42F7-AAA5-2EDB4B3AB81D}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B4:AC10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" numFmtId="164" showAll="0">
@@ -1813,7 +1830,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8B738EB-979C-48AB-9B8D-FC5DD5A3B44D}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8B738EB-979C-48AB-9B8D-FC5DD5A3B44D}" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:F31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
@@ -1978,7 +1995,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9605B8C9-D430-4B77-ABBF-FA834A6C9BDD}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9605B8C9-D430-4B77-ABBF-FA834A6C9BDD}" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B4:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
@@ -2097,16 +2114,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2874F0A5-6475-4825-A4E3-9C8104862884}" name="Orders" displayName="Orders" ref="A1:G44" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="20" headerRowCellStyle="Currency_TapePivot">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2874F0A5-6475-4825-A4E3-9C8104862884}" name="Orders" displayName="Orders" ref="A1:G44" totalsRowShown="0" headerRowDxfId="34" tableBorderDxfId="33" headerRowCellStyle="Currency_TapePivot">
   <autoFilter ref="A1:G44" xr:uid="{98A4D317-A253-46BF-B0DF-26F2415F5B0F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AAAF99AD-C64B-480F-B69F-89D34D17EAD7}" name="OrderDate" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{E6065A7A-3319-43D2-944C-194159E3F300}" name="Region" dataDxfId="18" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="3" xr3:uid="{BB7DF11E-D707-4A3B-BA4C-7EF120A6E4C2}" name="Rep" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{BA990518-F6AA-4384-A155-194E9FAB5720}" name="Item" dataDxfId="16" dataCellStyle="Normal_TapePivot"/>
-    <tableColumn id="5" xr3:uid="{9D8A3599-D92D-4DF7-90D9-477E041C0146}" name="Units" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{586E2427-BD29-42A9-964C-7225531821A2}" name="Unit Cost" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{BB1BA419-CD52-4C65-A796-5878ADEA89A2}" name="Total" dataDxfId="13" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{AAAF99AD-C64B-480F-B69F-89D34D17EAD7}" name="OrderDate" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{E6065A7A-3319-43D2-944C-194159E3F300}" name="Region" dataDxfId="31" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="3" xr3:uid="{BB7DF11E-D707-4A3B-BA4C-7EF120A6E4C2}" name="Rep" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{BA990518-F6AA-4384-A155-194E9FAB5720}" name="Item" dataDxfId="29" dataCellStyle="Normal_TapePivot"/>
+    <tableColumn id="5" xr3:uid="{9D8A3599-D92D-4DF7-90D9-477E041C0146}" name="Units" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{586E2427-BD29-42A9-964C-7225531821A2}" name="Unit Cost" dataDxfId="27" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{BB1BA419-CD52-4C65-A796-5878ADEA89A2}" name="Total" dataDxfId="26" dataCellStyle="Comma">
       <calculatedColumnFormula>F2*E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2115,16 +2132,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G44" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G44" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="A1:G44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="OrderDate" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Region" dataDxfId="26" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Rep" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Item" dataDxfId="24" dataCellStyle="Normal_TapePivot"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Units" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Unit Cost" dataDxfId="22" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total" dataDxfId="21" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="OrderDate" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Region" dataDxfId="23" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Rep" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Item" dataDxfId="21" dataCellStyle="Normal_TapePivot"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Units" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Unit Cost" dataDxfId="19" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total" dataDxfId="18" dataCellStyle="Comma">
       <calculatedColumnFormula>F2*E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3751,7 +3768,7 @@
   <dimension ref="B2:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4623,7 +4640,7 @@
   <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
